--- a/output/Patent Proprietors.xlsx
+++ b/output/Patent Proprietors.xlsx
@@ -14,9 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>Patent Proprietor</t>
+  </si>
+  <si>
+    <t>N.V. Nutricia</t>
+  </si>
+  <si>
+    <t>Société des Produits Nestlé S.A.</t>
+  </si>
+  <si>
+    <t>BASF SE</t>
+  </si>
+  <si>
+    <t>Novartis AG</t>
+  </si>
+  <si>
+    <t>L'Oréal</t>
+  </si>
+  <si>
+    <t>The Procter &amp; Gamble Company</t>
+  </si>
+  <si>
+    <t>Beiersdorf AG</t>
+  </si>
+  <si>
+    <t>Colgate-Palmolive Company</t>
+  </si>
+  <si>
+    <t>Henkel AG &amp; Co. KGaA</t>
+  </si>
+  <si>
+    <t>GlaxoSmithKline Biologicals SA</t>
   </si>
 </sst>
 </file>
@@ -374,64 +407,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
     </row>
